--- a/biology/Médecine/Pedro_Cavadas/Pedro_Cavadas.xlsx
+++ b/biology/Médecine/Pedro_Cavadas/Pedro_Cavadas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pedro Carlos Cavadas Rodríguez, né en novembre 1965 à Valence (Espagne) est un chirurgien plastique espagnol connu internationalement pour ses opérations de greffes et de reconstructions.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d'un avocat de l'État et d'une femme au foyer de Castellar de Santiago, Pedro Cavadas a déclaré à maintes reprises que son rêve d'enfant était d'imiter Félix Rodríguez de la Fuente[1]. Il est diplômé en médecine de l'Université de 1988. de Valence avec mention honorable. Il a fait la spécialité de la chirurgie plastique et reconstructive en tant que médecin interne résident à l'hôpital La Fe de Valence, obtenant le titre en 1995. Cette même année, il a obtenu un doctorat de l'Université de Valence, avec la qualification d'Apt cum laude. Il a terminé sa formation aux États-Unis.
-Après une étape au centre de rééducation Levante et à l'hôpital clinique de Valence, il est retourné à l'hôpital La Fe, avec des séjours temporaires au Kenya, où il a créé une fondation pour la chirurgie réparatrice[2].
-Le Dr Cavadas, comme il l'a lui-même reconnu à plusieurs reprises, était devenu le prototype d'un chirurgien riche et ambitieux. Cependant, la mort de son frère et ses séjours au Kenya l'ont amené à changer de vie et à créer la Fondation Pedro Cavadas, une organisation à but non lucratif dédiée à la chirurgie reconstructive en Afrique[3],[4],[5]. La mission de La Fondation, selon ses propres mots, aide ceux qui ne peuvent pas choisir et en même temps redonne ce qui nous a été donné[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'un avocat de l'État et d'une femme au foyer de Castellar de Santiago, Pedro Cavadas a déclaré à maintes reprises que son rêve d'enfant était d'imiter Félix Rodríguez de la Fuente. Il est diplômé en médecine de l'Université de 1988. de Valence avec mention honorable. Il a fait la spécialité de la chirurgie plastique et reconstructive en tant que médecin interne résident à l'hôpital La Fe de Valence, obtenant le titre en 1995. Cette même année, il a obtenu un doctorat de l'Université de Valence, avec la qualification d'Apt cum laude. Il a terminé sa formation aux États-Unis.
+Après une étape au centre de rééducation Levante et à l'hôpital clinique de Valence, il est retourné à l'hôpital La Fe, avec des séjours temporaires au Kenya, où il a créé une fondation pour la chirurgie réparatrice.
+Le Dr Cavadas, comme il l'a lui-même reconnu à plusieurs reprises, était devenu le prototype d'un chirurgien riche et ambitieux. Cependant, la mort de son frère et ses séjours au Kenya l'ont amené à changer de vie et à créer la Fondation Pedro Cavadas, une organisation à but non lucratif dédiée à la chirurgie reconstructive en Afrique. La mission de La Fondation, selon ses propres mots, aide ceux qui ne peuvent pas choisir et en même temps redonne ce qui nous a été donné,.
 </t>
         </is>
       </c>
